--- a/src/test/java/data/registrationData.xlsx
+++ b/src/test/java/data/registrationData.xlsx
@@ -2,28 +2,23 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITI\Automation\AutomationFrameworkTry\src\test\java\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
-    <sheet name="new email" sheetId="1" r:id="rId1"/>
+    <sheet name="email" sheetId="1" r:id="rId1"/>
     <sheet name="name" sheetId="2" r:id="rId2"/>
     <sheet name="password" sheetId="3" r:id="rId3"/>
     <sheet name="date of birth" sheetId="4" r:id="rId4"/>
-    <sheet name="Address" sheetId="5" r:id="rId5"/>
+    <sheet name="address" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -36,36 +31,39 @@
     <t>Tarek</t>
   </si>
   <si>
+    <t>ayaaya</t>
+  </si>
+  <si>
+    <t>manial</t>
+  </si>
+  <si>
     <t>cairo</t>
   </si>
   <si>
-    <t>ayaaya</t>
-  </si>
-  <si>
-    <t>manial</t>
-  </si>
-  <si>
-    <t>aya511911111@gmail.com</t>
+    <t>aya33@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <u/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -88,11 +86,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -112,116 +114,56 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4285F4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="EA4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="FBBC04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="34A853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="FF6D01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="1155CC"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="1155CC"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -364,31 +306,27 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -402,19 +340,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -425,17 +364,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -445,22 +385,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
         <v>2</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="2">
         <v>2</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="2">
         <v>2020</v>
       </c>
     </row>
@@ -471,29 +412,29 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1">
+      <c r="C1" s="2">
         <v>1</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="2">
         <v>11865</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="2">
         <v>1144942707</v>
       </c>
     </row>

--- a/src/test/java/data/registrationData.xlsx
+++ b/src/test/java/data/registrationData.xlsx
@@ -40,7 +40,7 @@
     <t>cairo</t>
   </si>
   <si>
-    <t>aya33@gmail.com</t>
+    <t>aya333@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -316,9 +316,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
